--- a/biology/Zoologie/Crossodactylus_werneri/Crossodactylus_werneri.xlsx
+++ b/biology/Zoologie/Crossodactylus_werneri/Crossodactylus_werneri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crossodactylus werneri est une espèce d'amphibiens de la famille des Hylodidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crossodactylus werneri est une espèce d'amphibiens de la famille des Hylodidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre dans les États du Minas Gerais, de Rio de Janeiro et de São Paulo[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre dans les États du Minas Gerais, de Rio de Janeiro et de São Paulo.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 36 spécimens adultes mâles observés lors de la description originale mesurent entre 18,6 mm et 24,1 mm de longueur standard et les 66 spécimens adultes femelles observés lors de la description originale mesurent entre 20,1 mm et 28,7 mm de longueur standard[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 36 spécimens adultes mâles observés lors de la description originale mesurent entre 18,6 mm et 24,1 mm de longueur standard et les 66 spécimens adultes femelles observés lors de la description originale mesurent entre 20,1 mm et 28,7 mm de longueur standard.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Werner Carl August Bokermann[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Werner Carl August Bokermann.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pimenta, Cruz &amp; Caramaschi, 2014 : Taxonomic review of the species complex of Crossodactylus dispar A. Lutz, 1925 (Anura, Hylodidae). Arquivos de Zoologia, São Paulo, vol. 45, p. 1–33 (texte intégral).</t>
         </is>
